--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.07831966666667</v>
+        <v>23.77588366666667</v>
       </c>
       <c r="H2">
-        <v>90.234959</v>
+        <v>71.327651</v>
       </c>
       <c r="I2">
-        <v>0.2269842729019557</v>
+        <v>0.201093431146956</v>
       </c>
       <c r="J2">
-        <v>0.2269842729019557</v>
+        <v>0.2010934311469559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N2">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O2">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P2">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q2">
-        <v>1431.095268548612</v>
+        <v>1675.318093630106</v>
       </c>
       <c r="R2">
-        <v>12879.85741693751</v>
+        <v>15077.86284267095</v>
       </c>
       <c r="S2">
-        <v>0.1021856986613119</v>
+        <v>0.106111984283002</v>
       </c>
       <c r="T2">
-        <v>0.1021856986613119</v>
+        <v>0.1061119842830019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.07831966666667</v>
+        <v>23.77588366666667</v>
       </c>
       <c r="H3">
-        <v>90.234959</v>
+        <v>71.327651</v>
       </c>
       <c r="I3">
-        <v>0.2269842729019557</v>
+        <v>0.201093431146956</v>
       </c>
       <c r="J3">
-        <v>0.2269842729019557</v>
+        <v>0.2010934311469559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P3">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q3">
-        <v>295.6615706809988</v>
+        <v>233.7103663741468</v>
       </c>
       <c r="R3">
-        <v>2660.954136128989</v>
+        <v>2103.393297367321</v>
       </c>
       <c r="S3">
-        <v>0.02111137171040995</v>
+        <v>0.01480284300501537</v>
       </c>
       <c r="T3">
-        <v>0.02111137171040995</v>
+        <v>0.01480284300501537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.07831966666667</v>
+        <v>23.77588366666667</v>
       </c>
       <c r="H4">
-        <v>90.234959</v>
+        <v>71.327651</v>
       </c>
       <c r="I4">
-        <v>0.2269842729019557</v>
+        <v>0.201093431146956</v>
       </c>
       <c r="J4">
-        <v>0.2269842729019557</v>
+        <v>0.2010934311469559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N4">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q4">
-        <v>1123.257362421834</v>
+        <v>1010.605775641733</v>
       </c>
       <c r="R4">
-        <v>10109.3162617965</v>
+        <v>9095.451980775593</v>
       </c>
       <c r="S4">
-        <v>0.08020488983374663</v>
+        <v>0.06401016295887003</v>
       </c>
       <c r="T4">
-        <v>0.08020488983374663</v>
+        <v>0.06401016295887003</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.07831966666667</v>
+        <v>23.77588366666667</v>
       </c>
       <c r="H5">
-        <v>90.234959</v>
+        <v>71.327651</v>
       </c>
       <c r="I5">
-        <v>0.2269842729019557</v>
+        <v>0.201093431146956</v>
       </c>
       <c r="J5">
-        <v>0.2269842729019557</v>
+        <v>0.2010934311469559</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N5">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q5">
-        <v>328.8662409199253</v>
+        <v>255.2707101719242</v>
       </c>
       <c r="R5">
-        <v>2959.796168279328</v>
+        <v>2297.436391547318</v>
       </c>
       <c r="S5">
-        <v>0.02348231269648723</v>
+        <v>0.01616844090006861</v>
       </c>
       <c r="T5">
-        <v>0.02348231269648723</v>
+        <v>0.01616844090006861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>95.90877800000001</v>
       </c>
       <c r="I6">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="J6">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N6">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O6">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P6">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q6">
-        <v>1521.080077268936</v>
+        <v>2252.67072262555</v>
       </c>
       <c r="R6">
-        <v>13689.72069542042</v>
+        <v>20274.03650362995</v>
       </c>
       <c r="S6">
-        <v>0.1086109596135868</v>
+        <v>0.1426805818088405</v>
       </c>
       <c r="T6">
-        <v>0.1086109596135868</v>
+        <v>0.1426805818088405</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>95.90877800000001</v>
       </c>
       <c r="I7">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="J7">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P7">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q7">
         <v>314.2522616492265</v>
@@ -883,10 +883,10 @@
         <v>2828.270354843038</v>
       </c>
       <c r="S7">
-        <v>0.02243881844783892</v>
+        <v>0.01990423858956006</v>
       </c>
       <c r="T7">
-        <v>0.02243881844783892</v>
+        <v>0.01990423858956006</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>95.90877800000001</v>
       </c>
       <c r="I8">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="J8">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N8">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q8">
-        <v>1193.885853146797</v>
+        <v>1358.883457153815</v>
       </c>
       <c r="R8">
-        <v>10744.97267832117</v>
+        <v>12229.95111438433</v>
       </c>
       <c r="S8">
-        <v>0.08524803533826909</v>
+        <v>0.08606951754188695</v>
       </c>
       <c r="T8">
-        <v>0.08524803533826909</v>
+        <v>0.08606951754188695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>95.90877800000001</v>
       </c>
       <c r="I9">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="J9">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N9">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q9">
-        <v>349.5447844341973</v>
+        <v>343.2427891363116</v>
       </c>
       <c r="R9">
-        <v>3145.903059907776</v>
+        <v>3089.185102226804</v>
       </c>
       <c r="S9">
-        <v>0.0249588401246348</v>
+        <v>0.02174045250544982</v>
       </c>
       <c r="T9">
-        <v>0.02495884012463479</v>
+        <v>0.02174045250544982</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.62767266666667</v>
+        <v>14.51831366666667</v>
       </c>
       <c r="H10">
-        <v>43.883018</v>
+        <v>43.554941</v>
       </c>
       <c r="I10">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="J10">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N10">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O10">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P10">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q10">
-        <v>695.9695014593354</v>
+        <v>1023.002716355985</v>
       </c>
       <c r="R10">
-        <v>6263.72551313402</v>
+        <v>9207.024447203868</v>
       </c>
       <c r="S10">
-        <v>0.04969489545284688</v>
+        <v>0.06479536547248804</v>
       </c>
       <c r="T10">
-        <v>0.04969489545284688</v>
+        <v>0.06479536547248804</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.62767266666667</v>
+        <v>14.51831366666667</v>
       </c>
       <c r="H11">
-        <v>43.883018</v>
+        <v>43.554941</v>
       </c>
       <c r="I11">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="J11">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P11">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q11">
-        <v>143.7859801997865</v>
+        <v>142.7110114493234</v>
       </c>
       <c r="R11">
-        <v>1294.073821798078</v>
+        <v>1284.399103043911</v>
       </c>
       <c r="S11">
-        <v>0.01026687123305071</v>
+        <v>0.009039088553690169</v>
       </c>
       <c r="T11">
-        <v>0.01026687123305071</v>
+        <v>0.009039088553690169</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.62767266666667</v>
+        <v>14.51831366666667</v>
       </c>
       <c r="H12">
-        <v>43.883018</v>
+        <v>43.554941</v>
       </c>
       <c r="I12">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="J12">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N12">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q12">
-        <v>546.2619321829565</v>
+        <v>617.1081525218726</v>
       </c>
       <c r="R12">
-        <v>4916.357389646608</v>
+        <v>5553.973372696853</v>
       </c>
       <c r="S12">
-        <v>0.03900520001635198</v>
+        <v>0.03908664917444105</v>
       </c>
       <c r="T12">
-        <v>0.03900520001635198</v>
+        <v>0.03908664917444105</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.62767266666667</v>
+        <v>14.51831366666667</v>
       </c>
       <c r="H13">
-        <v>43.883018</v>
+        <v>43.554941</v>
       </c>
       <c r="I13">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="J13">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N13">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q13">
-        <v>159.9340580393173</v>
+        <v>155.8764457358375</v>
       </c>
       <c r="R13">
-        <v>1439.406522353856</v>
+        <v>1402.888011622538</v>
       </c>
       <c r="S13">
-        <v>0.01141990601161106</v>
+        <v>0.009872966228265041</v>
       </c>
       <c r="T13">
-        <v>0.01141990601161106</v>
+        <v>0.009872966228265041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.83720666666667</v>
+        <v>47.96923</v>
       </c>
       <c r="H14">
-        <v>167.51162</v>
+        <v>143.90769</v>
       </c>
       <c r="I14">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="J14">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N14">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O14">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P14">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q14">
-        <v>2656.676408629089</v>
+        <v>3380.051824074681</v>
       </c>
       <c r="R14">
-        <v>23910.0876776618</v>
+        <v>30420.46641667212</v>
       </c>
       <c r="S14">
-        <v>0.1896968992204915</v>
+        <v>0.2140871082307634</v>
       </c>
       <c r="T14">
-        <v>0.1896968992204915</v>
+        <v>0.2140871082307634</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.83720666666667</v>
+        <v>47.96923</v>
       </c>
       <c r="H15">
-        <v>167.51162</v>
+        <v>143.90769</v>
       </c>
       <c r="I15">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="J15">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P15">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q15">
-        <v>548.8643118518911</v>
+        <v>471.5242754027767</v>
       </c>
       <c r="R15">
-        <v>4939.77880666702</v>
+        <v>4243.71847862499</v>
       </c>
       <c r="S15">
-        <v>0.03919101991981779</v>
+        <v>0.02986559787710407</v>
       </c>
       <c r="T15">
-        <v>0.03919101991981778</v>
+        <v>0.02986559787710407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.83720666666667</v>
+        <v>47.96923</v>
       </c>
       <c r="H16">
-        <v>167.51162</v>
+        <v>143.90769</v>
       </c>
       <c r="I16">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="J16">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N16">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q16">
-        <v>2085.208022937191</v>
+        <v>2038.95600982654</v>
       </c>
       <c r="R16">
-        <v>18766.87220643472</v>
+        <v>18350.60408843886</v>
       </c>
       <c r="S16">
-        <v>0.1488918616117776</v>
+        <v>0.1291442317080448</v>
       </c>
       <c r="T16">
-        <v>0.1488918616117776</v>
+        <v>0.1291442317080448</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.83720666666667</v>
+        <v>47.96923</v>
       </c>
       <c r="H17">
-        <v>167.51162</v>
+        <v>143.90769</v>
       </c>
       <c r="I17">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="J17">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N17">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q17">
-        <v>610.5052563918932</v>
+        <v>515.0235246847134</v>
       </c>
       <c r="R17">
-        <v>5494.547307527038</v>
+        <v>4635.21172216242</v>
       </c>
       <c r="S17">
-        <v>0.04359242010776715</v>
+        <v>0.03262077116251023</v>
       </c>
       <c r="T17">
-        <v>0.04359242010776715</v>
+        <v>0.03262077116251023</v>
       </c>
     </row>
   </sheetData>
